--- a/InputExcelSheet/Input_parameterization.xlsx
+++ b/InputExcelSheet/Input_parameterization.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="colorcopy" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="API_Test_Scenarios" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t xml:space="preserve">Feature Name</t>
   </si>
@@ -46,35 +46,7 @@
     <t xml:space="preserve">POST</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">To </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">validate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> when user enters both valid credentials username and password.</t>
-    </r>
+    <t xml:space="preserve">To validate when user enters both valid credentials username and password.</t>
   </si>
   <si>
     <t xml:space="preserve">tushar.bhadane+frontdesk@thinkitive.com</t>
@@ -96,6 +68,12 @@
   </si>
   <si>
     <t xml:space="preserve">To validate when user have invalid username but valid password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provider</t>
   </si>
 </sst>
 </file>
@@ -105,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -139,12 +117,6 @@
       <name val="Bahnschrift SemiLight"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Bahnschrift SemiLight"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -322,10 +294,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -438,6 +410,16 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
